--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-08.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-04-08.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\BBG\RMS-RA Data check\RMS-RA部门销售数据核对\表格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="8505" yWindow="105" windowWidth="10095" windowHeight="5280"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="RA" sheetId="3" r:id="rId2"/>
     <sheet name="RMS" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -144,23 +139,23 @@
   </si>
   <si>
     <t>AMT</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>COST</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>成本</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>销售金额差异</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>销售成本差异</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>销售日报表</t>
@@ -248,7 +243,7 @@
       </rPr>
       <t>赠品</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>74-赠品</t>
@@ -267,7 +262,7 @@
       </rPr>
       <t>水果</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -286,7 +281,7 @@
       </rPr>
       <t>原材料</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>40-原材料</t>
@@ -305,7 +300,7 @@
       </rPr>
       <t>市场部</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>910-市场部</t>
@@ -314,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -325,18 +320,10 @@
     <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="85" x14ac:knownFonts="1">
+  <fonts count="84">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1475,143 +1462,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="299">
+  <cellStyleXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="21">
+    <xf numFmtId="0" fontId="43" fillId="38" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="65" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1657,142 +1641,64 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1801,10 +1707,22 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1813,10 +1731,22 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1825,10 +1755,25 @@
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -1837,19 +1782,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1858,22 +1794,10 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,22 +1806,10 @@
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1906,13 +1818,13 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1921,10 +1833,22 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1933,10 +1857,22 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1945,10 +1881,19 @@
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="81" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -2162,226 +2107,221 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="27" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="27" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="27" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="27" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="26" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="26" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="110"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="110" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="110"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="110" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="28" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="28" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="15" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="33" borderId="12" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="33" borderId="16" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="33" borderId="17" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="15" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="14" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="33" borderId="13" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="15" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="13" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="13" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="285">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="285" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="285" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="10" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="33" borderId="12" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="34" borderId="10" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="34" borderId="10" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="34" borderId="12" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="35" borderId="10" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="35" borderId="10" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="35" borderId="12" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="12" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="35" borderId="13" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="13" xfId="285" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="35" borderId="13" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="35" borderId="20" xfId="285" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="299">
+  <cellStyles count="285">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="192"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="196"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="200"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="204"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="208"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="212"/>
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 1 10" xfId="287"/>
     <cellStyle name="20% - 着色 1 2" xfId="84"/>
     <cellStyle name="20% - 着色 1 3" xfId="150"/>
     <cellStyle name="20% - 着色 1 4" xfId="177"/>
@@ -2390,8 +2330,6 @@
     <cellStyle name="20% - 着色 1 7" xfId="245"/>
     <cellStyle name="20% - 着色 1 8" xfId="259"/>
     <cellStyle name="20% - 着色 1 9" xfId="273"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2 10" xfId="289"/>
     <cellStyle name="20% - 着色 2 2" xfId="88"/>
     <cellStyle name="20% - 着色 2 3" xfId="154"/>
     <cellStyle name="20% - 着色 2 4" xfId="179"/>
@@ -2400,8 +2338,6 @@
     <cellStyle name="20% - 着色 2 7" xfId="247"/>
     <cellStyle name="20% - 着色 2 8" xfId="261"/>
     <cellStyle name="20% - 着色 2 9" xfId="275"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3 10" xfId="291"/>
     <cellStyle name="20% - 着色 3 2" xfId="92"/>
     <cellStyle name="20% - 着色 3 3" xfId="158"/>
     <cellStyle name="20% - 着色 3 4" xfId="181"/>
@@ -2410,8 +2346,6 @@
     <cellStyle name="20% - 着色 3 7" xfId="249"/>
     <cellStyle name="20% - 着色 3 8" xfId="263"/>
     <cellStyle name="20% - 着色 3 9" xfId="277"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4 10" xfId="293"/>
     <cellStyle name="20% - 着色 4 2" xfId="96"/>
     <cellStyle name="20% - 着色 4 3" xfId="162"/>
     <cellStyle name="20% - 着色 4 4" xfId="183"/>
@@ -2420,8 +2354,6 @@
     <cellStyle name="20% - 着色 4 7" xfId="251"/>
     <cellStyle name="20% - 着色 4 8" xfId="265"/>
     <cellStyle name="20% - 着色 4 9" xfId="279"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5 10" xfId="295"/>
     <cellStyle name="20% - 着色 5 2" xfId="100"/>
     <cellStyle name="20% - 着色 5 3" xfId="166"/>
     <cellStyle name="20% - 着色 5 4" xfId="185"/>
@@ -2430,8 +2362,6 @@
     <cellStyle name="20% - 着色 5 7" xfId="253"/>
     <cellStyle name="20% - 着色 5 8" xfId="267"/>
     <cellStyle name="20% - 着色 5 9" xfId="281"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6 10" xfId="297"/>
     <cellStyle name="20% - 着色 6 2" xfId="104"/>
     <cellStyle name="20% - 着色 6 3" xfId="170"/>
     <cellStyle name="20% - 着色 6 4" xfId="187"/>
@@ -2440,14 +2370,18 @@
     <cellStyle name="20% - 着色 6 7" xfId="255"/>
     <cellStyle name="20% - 着色 6 8" xfId="269"/>
     <cellStyle name="20% - 着色 6 9" xfId="283"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="213"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1 10" xfId="288"/>
     <cellStyle name="40% - 着色 1 2" xfId="85"/>
     <cellStyle name="40% - 着色 1 3" xfId="151"/>
     <cellStyle name="40% - 着色 1 4" xfId="178"/>
@@ -2456,8 +2390,6 @@
     <cellStyle name="40% - 着色 1 7" xfId="246"/>
     <cellStyle name="40% - 着色 1 8" xfId="260"/>
     <cellStyle name="40% - 着色 1 9" xfId="274"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2 10" xfId="290"/>
     <cellStyle name="40% - 着色 2 2" xfId="89"/>
     <cellStyle name="40% - 着色 2 3" xfId="155"/>
     <cellStyle name="40% - 着色 2 4" xfId="180"/>
@@ -2466,8 +2398,6 @@
     <cellStyle name="40% - 着色 2 7" xfId="248"/>
     <cellStyle name="40% - 着色 2 8" xfId="262"/>
     <cellStyle name="40% - 着色 2 9" xfId="276"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3 10" xfId="292"/>
     <cellStyle name="40% - 着色 3 2" xfId="93"/>
     <cellStyle name="40% - 着色 3 3" xfId="159"/>
     <cellStyle name="40% - 着色 3 4" xfId="182"/>
@@ -2476,8 +2406,6 @@
     <cellStyle name="40% - 着色 3 7" xfId="250"/>
     <cellStyle name="40% - 着色 3 8" xfId="264"/>
     <cellStyle name="40% - 着色 3 9" xfId="278"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4 10" xfId="294"/>
     <cellStyle name="40% - 着色 4 2" xfId="97"/>
     <cellStyle name="40% - 着色 4 3" xfId="163"/>
     <cellStyle name="40% - 着色 4 4" xfId="184"/>
@@ -2486,8 +2414,6 @@
     <cellStyle name="40% - 着色 4 7" xfId="252"/>
     <cellStyle name="40% - 着色 4 8" xfId="266"/>
     <cellStyle name="40% - 着色 4 9" xfId="280"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5 10" xfId="296"/>
     <cellStyle name="40% - 着色 5 2" xfId="101"/>
     <cellStyle name="40% - 着色 5 3" xfId="167"/>
     <cellStyle name="40% - 着色 5 4" xfId="186"/>
@@ -2496,8 +2422,6 @@
     <cellStyle name="40% - 着色 5 7" xfId="254"/>
     <cellStyle name="40% - 着色 5 8" xfId="268"/>
     <cellStyle name="40% - 着色 5 9" xfId="282"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6 10" xfId="298"/>
     <cellStyle name="40% - 着色 6 2" xfId="105"/>
     <cellStyle name="40% - 着色 6 3" xfId="171"/>
     <cellStyle name="40% - 着色 6 4" xfId="188"/>
@@ -2506,28 +2430,28 @@
     <cellStyle name="40% - 着色 6 7" xfId="256"/>
     <cellStyle name="40% - 着色 6 8" xfId="270"/>
     <cellStyle name="40% - 着色 6 9" xfId="284"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="194"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="198"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 3 2" xfId="202"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 4 2" xfId="206"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 5 2" xfId="210"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6 2" xfId="214"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 着色 1 2" xfId="86"/>
     <cellStyle name="60% - 着色 1 3" xfId="152"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 着色 2 2" xfId="90"/>
     <cellStyle name="60% - 着色 2 3" xfId="156"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - 着色 3 2" xfId="94"/>
     <cellStyle name="60% - 着色 3 3" xfId="160"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 4 2" xfId="98"/>
     <cellStyle name="60% - 着色 4 3" xfId="164"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5 2" xfId="102"/>
     <cellStyle name="60% - 着色 5 3" xfId="168"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6 2" xfId="106"/>
     <cellStyle name="60% - 着色 6 3" xfId="172"/>
     <cellStyle name="OBI_ColHeader" xfId="109"/>
@@ -2564,7 +2488,6 @@
     <cellStyle name="常规 19" xfId="257"/>
     <cellStyle name="常规 2" xfId="44"/>
     <cellStyle name="常规 20" xfId="271"/>
-    <cellStyle name="常规 21" xfId="285"/>
     <cellStyle name="常规 3" xfId="45"/>
     <cellStyle name="常规 3 2" xfId="54"/>
     <cellStyle name="常规 4" xfId="47"/>
@@ -2611,11 +2534,17 @@
     <cellStyle name="千位分隔 2" xfId="63"/>
     <cellStyle name="千位分隔[0]" xfId="112" builtinId="6" customBuiltin="1"/>
     <cellStyle name="千位分隔[0] 2" xfId="64"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 1 2" xfId="191"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 2 2" xfId="195"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 3 2" xfId="199"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 4 2" xfId="203"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 5 2" xfId="207"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="强调文字颜色 6 2" xfId="211"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="适中 2" xfId="74"/>
@@ -2629,22 +2558,16 @@
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" customBuiltin="1"/>
     <cellStyle name="已访问的超链接 2" xfId="108"/>
     <cellStyle name="已访问的超链接 3" xfId="174"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 1 2" xfId="83"/>
     <cellStyle name="着色 1 3" xfId="149"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 2 2" xfId="87"/>
     <cellStyle name="着色 2 3" xfId="153"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 3 2" xfId="91"/>
     <cellStyle name="着色 3 3" xfId="157"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 4 2" xfId="95"/>
     <cellStyle name="着色 4 3" xfId="161"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 5 2" xfId="99"/>
     <cellStyle name="着色 5 3" xfId="165"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="着色 6 2" xfId="103"/>
     <cellStyle name="着色 6 3" xfId="169"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -2665,7 +2588,6 @@
     <cellStyle name="注释 23" xfId="244"/>
     <cellStyle name="注释 24" xfId="258"/>
     <cellStyle name="注释 25" xfId="272"/>
-    <cellStyle name="注释 26" xfId="286"/>
     <cellStyle name="注释 3" xfId="116"/>
     <cellStyle name="注释 4" xfId="117"/>
     <cellStyle name="注释 5" xfId="118"/>
@@ -20999,7 +20921,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21019,7 +20941,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21056,7 +20978,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21076,7 +20998,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21111,7 +21033,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21131,7 +21053,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21168,7 +21090,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21188,7 +21110,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21223,7 +21145,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21243,7 +21165,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21280,7 +21202,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21300,7 +21222,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21335,7 +21257,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21355,7 +21277,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21392,7 +21314,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21412,7 +21334,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21447,7 +21369,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21467,7 +21389,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21504,7 +21426,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21524,7 +21446,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21559,7 +21481,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21579,7 +21501,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21616,7 +21538,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21636,7 +21558,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21671,7 +21593,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21691,7 +21613,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21728,7 +21650,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21748,7 +21670,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21783,7 +21705,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21803,7 +21725,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21840,7 +21762,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21860,7 +21782,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21895,7 +21817,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21915,7 +21837,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21952,7 +21874,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -21972,7 +21894,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22007,7 +21929,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22027,7 +21949,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22064,7 +21986,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22084,7 +22006,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22119,7 +22041,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22139,7 +22061,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22176,7 +22098,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22196,7 +22118,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44207,7 +44129,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44227,7 +44149,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44264,7 +44186,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44284,7 +44206,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44319,7 +44241,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44339,7 +44261,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44376,7 +44298,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44396,7 +44318,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44431,7 +44353,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44451,7 +44373,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44488,7 +44410,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44508,7 +44430,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44543,7 +44465,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44563,7 +44485,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44600,7 +44522,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44620,7 +44542,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44655,7 +44577,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44675,7 +44597,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44712,7 +44634,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44732,7 +44654,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44767,7 +44689,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44787,7 +44709,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44824,7 +44746,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44844,7 +44766,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44879,7 +44801,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44899,7 +44821,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44936,7 +44858,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44956,7 +44878,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44991,7 +44913,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45011,7 +44933,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45048,7 +44970,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45068,7 +44990,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45103,7 +45025,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45123,7 +45045,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45160,7 +45082,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45180,7 +45102,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45215,7 +45137,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45235,7 +45157,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45272,7 +45194,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45292,7 +45214,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45327,7 +45249,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45347,7 +45269,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45384,7 +45306,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45404,7 +45326,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -51957,6 +51879,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId632" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19735800" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1188" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1189" name="Picture 2" descr="cid:2a34f1913">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId633" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId634" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -52021,7 +52025,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -52053,10 +52057,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -52088,7 +52091,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -52264,18 +52266,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" style="4" customWidth="1"/>
@@ -52290,7 +52292,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -52320,15 +52322,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="42"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -52338,13 +52340,13 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="15">
         <f>SUM(E4:E41)</f>
         <v>15316563.863500003</v>
@@ -52378,18 +52380,18 @@
         <v>0.10278122499585152</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+    <row r="4" spans="1:13">
+      <c r="A4" s="66">
         <f>RA!A8</f>
         <v>42468</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D36,3,0)</f>
         <v>568357.38320000004</v>
@@ -52423,15 +52425,15 @@
         <v>-7.6495729153975844E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="66"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D37,3,0)</f>
         <v>69396.851299999995</v>
@@ -52466,15 +52468,15 @@
       </c>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="66"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D38,3,0)</f>
         <v>121512.88499999999</v>
@@ -52509,15 +52511,15 @@
       </c>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="66"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D39,3,0)</f>
         <v>50654.482900000003</v>
@@ -52552,15 +52554,15 @@
       </c>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="66"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D39,3,0)</f>
         <v>89348.524099999995</v>
@@ -52595,15 +52597,15 @@
       </c>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="66"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D40,3,0)</f>
         <v>168815.5379</v>
@@ -52638,15 +52640,15 @@
       </c>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="66"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D41,3,0)</f>
         <v>125357.47229999999</v>
@@ -52681,15 +52683,15 @@
       </c>
       <c r="M10" s="32"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="66"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D42,3,0)</f>
         <v>106355.7102</v>
@@ -52724,15 +52726,15 @@
       </c>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="66"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D43,3,0)</f>
         <v>996670.92570000002</v>
@@ -52767,15 +52769,15 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="66"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D44,3,0)</f>
         <v>725053.92839999998</v>
@@ -52810,15 +52812,15 @@
       </c>
       <c r="M13" s="32"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="66"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D44,3,0)</f>
         <v>1410990.652</v>
@@ -52853,15 +52855,15 @@
       </c>
       <c r="M14" s="32"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="66"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D45,3,0)</f>
         <v>462992.35220000002</v>
@@ -52896,15 +52898,15 @@
       </c>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="66"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D46,3,0)</f>
         <v>882483.27650000004</v>
@@ -52939,15 +52941,15 @@
       </c>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="66"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D47,3,0)</f>
         <v>306181.60249999998</v>
@@ -52982,15 +52984,15 @@
       </c>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="66"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D48,3,0)</f>
         <v>1082068.4896</v>
@@ -53025,15 +53027,15 @@
       </c>
       <c r="M18" s="32"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="66"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D49,3,0)</f>
         <v>2357038.9045000002</v>
@@ -53068,15 +53070,15 @@
       </c>
       <c r="M19" s="32"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="66"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D50,3,0)</f>
         <v>228032.14509999999</v>
@@ -53111,15 +53113,15 @@
       </c>
       <c r="M20" s="32"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="66"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D51,3,0)</f>
         <v>215347.47659999999</v>
@@ -53154,15 +53156,15 @@
       </c>
       <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="66"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D52,3,0)</f>
         <v>591108.34990000003</v>
@@ -53197,15 +53199,15 @@
       </c>
       <c r="M22" s="32"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="66"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D53,3,0)</f>
         <v>219970.5699</v>
@@ -53240,15 +53242,15 @@
       </c>
       <c r="M23" s="32"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="66"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D54,3,0)</f>
         <v>744722.5209</v>
@@ -53283,15 +53285,15 @@
       </c>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="66"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D55,3,0)</f>
         <v>822706.51190000004</v>
@@ -53326,15 +53328,15 @@
       </c>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="66"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D56,3,0)</f>
         <v>1103524.0830999999</v>
@@ -53369,15 +53371,15 @@
       </c>
       <c r="M26" s="32"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="66"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D57,3,0)</f>
         <v>812206.8014</v>
@@ -53412,15 +53414,15 @@
       </c>
       <c r="M27" s="32"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="66"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D58,3,0)</f>
         <v>98287.765499999994</v>
@@ -53455,15 +53457,15 @@
       </c>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="66"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D59,3,0)</f>
         <v>0</v>
@@ -53498,15 +53500,15 @@
       </c>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:13" ht="12" thickBot="1">
+      <c r="A30" s="66"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D61,3,0)</f>
         <v>121744.51730000001</v>
@@ -53541,15 +53543,15 @@
       </c>
       <c r="M30" s="32"/>
     </row>
-    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
+      <c r="A31" s="66"/>
       <c r="B31" s="12">
         <v>70</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B35:D62,3,0)</f>
         <v>57470.98</v>
@@ -53583,15 +53585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="66"/>
       <c r="B32" s="12">
         <v>71</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D62,3,0)</f>
         <v>138055.64000000001</v>
@@ -53626,15 +53628,15 @@
       </c>
       <c r="M32" s="32"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="66"/>
       <c r="B33" s="12">
         <v>72</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="43"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D63,3,0)</f>
         <v>82479.520000000004</v>
@@ -53669,15 +53671,15 @@
       </c>
       <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="66"/>
       <c r="B34" s="12">
         <v>73</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B35:D64,3,0)</f>
         <v>112850.56</v>
@@ -53712,15 +53714,15 @@
       </c>
       <c r="M34" s="32"/>
     </row>
-    <row r="35" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+    <row r="35" spans="1:13" s="35" customFormat="1">
+      <c r="A35" s="66"/>
       <c r="B35" s="12">
         <v>74</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B36:D65,3,0)</f>
         <v>0</v>
@@ -53754,15 +53756,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+    <row r="36" spans="1:13" ht="11.25" customHeight="1">
+      <c r="A36" s="66"/>
       <c r="B36" s="12">
         <v>75</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B8:D65,3,0)</f>
         <v>42670.085500000001</v>
@@ -53797,15 +53799,15 @@
       </c>
       <c r="M36" s="32"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="66"/>
       <c r="B37" s="12">
         <v>76</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D66,3,0)</f>
         <v>271320.41220000002</v>
@@ -53840,15 +53842,15 @@
       </c>
       <c r="M37" s="32"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:13">
+      <c r="A38" s="66"/>
       <c r="B38" s="12">
         <v>77</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="64"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B9:D67,3,0)</f>
         <v>89470.97</v>
@@ -53883,15 +53885,15 @@
       </c>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="66"/>
       <c r="B39" s="12">
         <v>78</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B10:D68,3,0)</f>
         <v>32547.040000000001</v>
@@ -53926,15 +53928,15 @@
       </c>
       <c r="M39" s="32"/>
     </row>
-    <row r="40" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:13" s="36" customFormat="1">
+      <c r="A40" s="66"/>
       <c r="B40" s="12">
         <v>9101</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B11:D69,3,0)</f>
         <v>0</v>
@@ -53968,15 +53970,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="66"/>
       <c r="B41" s="12">
         <v>99</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B8:D69,3,0)</f>
         <v>8768.9359000000004</v>
@@ -54055,22 +54057,22 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
   </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W45"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8" style="41" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="41"/>
@@ -54091,2478 +54093,2453 @@
     <col min="23" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="64" t="s">
+    <row r="1" spans="1:23" ht="12.75">
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="61"/>
+      <c r="W1" s="73"/>
     </row>
-    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="61"/>
+    <row r="2" spans="1:23" ht="12.75">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="73"/>
     </row>
-    <row r="3" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="65" t="s">
+    <row r="3" spans="1:23" ht="23.25" thickBot="1">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="61"/>
+      <c r="W3" s="73"/>
     </row>
-    <row r="4" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="61"/>
+    <row r="4" spans="1:23" ht="12.75" thickTop="1" thickBot="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="W4" s="73"/>
     </row>
-    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
+    <row r="5" spans="1:23" ht="22.5" thickTop="1" thickBot="1">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="69" t="s">
+      <c r="Q5" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="69" t="s">
+      <c r="R5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="S5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="69" t="s">
+      <c r="T5" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="70" t="s">
+      <c r="U5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
     </row>
-    <row r="6" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:23" ht="12" thickBot="1">
+      <c r="A6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="50"/>
     </row>
-    <row r="7" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:23" ht="12" thickBot="1">
+      <c r="A7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="73">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="51">
         <v>15316563.863500001</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="51">
         <v>17589439.703699999</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="52">
         <v>87.078179416244296</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="51">
         <v>15633061.655400001</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="52">
         <v>-2.0245413142772302</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="51">
         <v>1182139.2021999999</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="52">
         <v>7.7180444173714804</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="51">
         <v>1659455.2021999999</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="52">
         <v>10.6150365090308</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="52">
         <v>-0.28763415810635101</v>
       </c>
-      <c r="N7" s="73">
+      <c r="N7" s="51">
         <v>131957878.6327</v>
       </c>
-      <c r="O7" s="73">
+      <c r="O7" s="51">
         <v>2464743140.7584</v>
       </c>
-      <c r="P7" s="73">
+      <c r="P7" s="51">
         <v>841448</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="51">
         <v>744090</v>
       </c>
-      <c r="R7" s="74">
+      <c r="R7" s="52">
         <v>13.084169925681</v>
       </c>
-      <c r="S7" s="73">
+      <c r="S7" s="51">
         <v>18.202626738075299</v>
       </c>
-      <c r="T7" s="73">
+      <c r="T7" s="51">
         <v>18.170232901799501</v>
       </c>
-      <c r="U7" s="75">
+      <c r="U7" s="53">
         <v>0.17796242675260801</v>
       </c>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
     </row>
-    <row r="8" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+    <row r="8" spans="1:23" ht="12" thickBot="1">
+      <c r="A8" s="79">
         <v>42468</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="76">
+      <c r="C8" s="68"/>
+      <c r="D8" s="54">
         <v>568357.38320000004</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="54">
         <v>784955.39159999997</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="55">
         <v>72.406328981510498</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="54">
         <v>678865.44090000005</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="55">
         <v>-16.278344873984899</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="54">
         <v>61163.649100000002</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="55">
         <v>10.7614770051253</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="54">
         <v>134035.49040000001</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="55">
         <v>19.7440438597528</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="55">
         <v>-0.54367571665183401</v>
       </c>
-      <c r="N8" s="76">
+      <c r="N8" s="54">
         <v>5560381.6500000004</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="54">
         <v>94946377.446799994</v>
       </c>
-      <c r="P8" s="76">
+      <c r="P8" s="54">
         <v>25850</v>
       </c>
-      <c r="Q8" s="76">
+      <c r="Q8" s="54">
         <v>24270</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="55">
         <v>6.5100947672023004</v>
       </c>
-      <c r="S8" s="76">
+      <c r="S8" s="54">
         <v>21.9867459651838</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="54">
         <v>21.9227142274413</v>
       </c>
-      <c r="U8" s="78">
+      <c r="U8" s="56">
         <v>0.29122880595365402</v>
       </c>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
     </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="62" t="s">
+    <row r="9" spans="1:23" ht="12" thickBot="1">
+      <c r="A9" s="80"/>
+      <c r="B9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="76">
+      <c r="C9" s="68"/>
+      <c r="D9" s="54">
         <v>69396.851299999995</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="54">
         <v>102485.5552</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="55">
         <v>67.713787728009507</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="54">
         <v>80141.658599999995</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="55">
         <v>-13.4072684390388</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="54">
         <v>8468.9187999999995</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="55">
         <v>12.2036067074415</v>
       </c>
-      <c r="K9" s="76">
+      <c r="K9" s="54">
         <v>18275.694599999999</v>
       </c>
-      <c r="L9" s="77">
+      <c r="L9" s="55">
         <v>22.804238044556801</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="55">
         <v>-0.53660208351260197</v>
       </c>
-      <c r="N9" s="76">
+      <c r="N9" s="54">
         <v>1074291.7028000001</v>
       </c>
-      <c r="O9" s="76">
+      <c r="O9" s="54">
         <v>13031882.6568</v>
       </c>
-      <c r="P9" s="76">
+      <c r="P9" s="54">
         <v>4195</v>
       </c>
-      <c r="Q9" s="76">
+      <c r="Q9" s="54">
         <v>3385</v>
       </c>
-      <c r="R9" s="77">
+      <c r="R9" s="55">
         <v>23.929098966026601</v>
       </c>
-      <c r="S9" s="76">
+      <c r="S9" s="54">
         <v>16.542753587604299</v>
       </c>
-      <c r="T9" s="76">
+      <c r="T9" s="54">
         <v>16.621085258493402</v>
       </c>
-      <c r="U9" s="78">
+      <c r="U9" s="56">
         <v>-0.47351047378087202</v>
       </c>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
     </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="62" t="s">
+    <row r="10" spans="1:23" ht="12" thickBot="1">
+      <c r="A10" s="80"/>
+      <c r="B10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="76">
+      <c r="C10" s="68"/>
+      <c r="D10" s="54">
         <v>121512.88499999999</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="54">
         <v>158810.46960000001</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="55">
         <v>76.514404438232305</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="54">
         <v>115990.2494</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="55">
         <v>4.7612929781320199</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="54">
         <v>11868.977800000001</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="55">
         <v>9.7676701528401697</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="54">
         <v>27786.633699999998</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="55">
         <v>23.9560082366717</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="55">
         <v>-0.57285297930853696</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="54">
         <v>1353501.885</v>
       </c>
-      <c r="O10" s="76">
+      <c r="O10" s="54">
         <v>22549607.4793</v>
       </c>
-      <c r="P10" s="76">
+      <c r="P10" s="54">
         <v>88442</v>
       </c>
-      <c r="Q10" s="76">
+      <c r="Q10" s="54">
         <v>78428</v>
       </c>
-      <c r="R10" s="77">
+      <c r="R10" s="55">
         <v>12.7683990411588</v>
       </c>
-      <c r="S10" s="76">
+      <c r="S10" s="54">
         <v>1.37392737613351</v>
       </c>
-      <c r="T10" s="76">
+      <c r="T10" s="54">
         <v>1.35305222497067</v>
       </c>
-      <c r="U10" s="78">
+      <c r="U10" s="56">
         <v>1.51937806360509</v>
       </c>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
     </row>
-    <row r="11" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="1:23" ht="12" thickBot="1">
+      <c r="A11" s="80"/>
+      <c r="B11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="76">
+      <c r="C11" s="68"/>
+      <c r="D11" s="54">
         <v>50654.482900000003</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="54">
         <v>90853.598299999998</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="55">
         <v>55.753964452500902</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="54">
         <v>48217.4519</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="55">
         <v>5.0542509070247998</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="54">
         <v>-4008.54</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="55">
         <v>-7.9134950561305599</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="54">
         <v>10107.398499999999</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="55">
         <v>20.9621166231723</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="55">
         <v>-1.3965946331293899</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="54">
         <v>494152.81459999998</v>
       </c>
-      <c r="O11" s="76">
+      <c r="O11" s="54">
         <v>7535802.9853999997</v>
       </c>
-      <c r="P11" s="76">
+      <c r="P11" s="54">
         <v>2634</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="54">
         <v>2402</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="55">
         <v>9.6586178184846005</v>
       </c>
-      <c r="S11" s="76">
+      <c r="S11" s="54">
         <v>19.2310109719058</v>
       </c>
-      <c r="T11" s="76">
+      <c r="T11" s="54">
         <v>18.375223355537099</v>
       </c>
-      <c r="U11" s="78">
+      <c r="U11" s="56">
         <v>4.45003966572009</v>
       </c>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
     </row>
-    <row r="12" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="62" t="s">
+    <row r="12" spans="1:23" ht="12" thickBot="1">
+      <c r="A12" s="80"/>
+      <c r="B12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="76">
+      <c r="C12" s="68"/>
+      <c r="D12" s="54">
         <v>89348.524099999995</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="54">
         <v>112095.59759999999</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="55">
         <v>79.707433666422602</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="54">
         <v>115559.3268</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="55">
         <v>-22.681685179218299</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="54">
         <v>18731.0566</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="55">
         <v>20.964035823396401</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="54">
         <v>18838.0471</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="55">
         <v>16.301624128187601</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="55">
         <v>-5.6794899934190001E-3</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="54">
         <v>770652.25800000003</v>
       </c>
-      <c r="O12" s="76">
+      <c r="O12" s="54">
         <v>24444691.964600001</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="54">
         <v>873</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="54">
         <v>815</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="55">
         <v>7.1165644171779201</v>
       </c>
-      <c r="S12" s="76">
+      <c r="S12" s="54">
         <v>102.346533906071</v>
       </c>
-      <c r="T12" s="76">
+      <c r="T12" s="54">
         <v>102.195373496933</v>
       </c>
-      <c r="U12" s="78">
+      <c r="U12" s="56">
         <v>0.14769470285844</v>
       </c>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
     </row>
-    <row r="13" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="62" t="s">
+    <row r="13" spans="1:23" ht="12" thickBot="1">
+      <c r="A13" s="80"/>
+      <c r="B13" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="76">
+      <c r="C13" s="68"/>
+      <c r="D13" s="54">
         <v>168815.5379</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="54">
         <v>266431.9301</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="55">
         <v>63.361601530506697</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="54">
         <v>250686.85579999999</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="55">
         <v>-32.658799616250199</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="54">
         <v>54923.296799999996</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="55">
         <v>32.534503330217497</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="54">
         <v>54615.920899999997</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="55">
         <v>21.7865115926034</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="55">
         <v>5.6279541740730001E-3</v>
       </c>
-      <c r="N13" s="76">
+      <c r="N13" s="54">
         <v>1547849.7916000001</v>
       </c>
-      <c r="O13" s="76">
+      <c r="O13" s="54">
         <v>41055365.500500001</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="54">
         <v>7135</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="54">
         <v>6694</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="55">
         <v>6.5879892440991998</v>
       </c>
-      <c r="S13" s="76">
+      <c r="S13" s="54">
         <v>23.660201527680499</v>
       </c>
-      <c r="T13" s="76">
+      <c r="T13" s="54">
         <v>23.879718763071399</v>
       </c>
-      <c r="U13" s="78">
+      <c r="U13" s="56">
         <v>-0.92779106354668806</v>
       </c>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
     </row>
-    <row r="14" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="62" t="s">
+    <row r="14" spans="1:23" ht="12" thickBot="1">
+      <c r="A14" s="80"/>
+      <c r="B14" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="76">
+      <c r="C14" s="68"/>
+      <c r="D14" s="54">
         <v>125357.47229999999</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="54">
         <v>159812.49530000001</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="55">
         <v>78.440344770713295</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="54">
         <v>124896.5833</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="55">
         <v>0.36901649974918599</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="54">
         <v>21566.691699999999</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="55">
         <v>17.204153294019498</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="54">
         <v>22334.3226</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="55">
         <v>17.882252668476301</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="55">
         <v>-3.4370010398255997E-2</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="54">
         <v>1022888.1598</v>
       </c>
-      <c r="O14" s="76">
+      <c r="O14" s="54">
         <v>17557032.143300001</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="54">
         <v>2085</v>
       </c>
-      <c r="Q14" s="76">
+      <c r="Q14" s="54">
         <v>2331</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="55">
         <v>-10.5534105534106</v>
       </c>
-      <c r="S14" s="76">
+      <c r="S14" s="54">
         <v>60.123487913669102</v>
       </c>
-      <c r="T14" s="76">
+      <c r="T14" s="54">
         <v>54.323345645645603</v>
       </c>
-      <c r="U14" s="78">
+      <c r="U14" s="56">
         <v>9.6470488810492903</v>
       </c>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
     </row>
-    <row r="15" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="62" t="s">
+    <row r="15" spans="1:23" ht="12" thickBot="1">
+      <c r="A15" s="80"/>
+      <c r="B15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="76">
+      <c r="C15" s="68"/>
+      <c r="D15" s="54">
         <v>106355.7102</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="54">
         <v>146299.81099999999</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="55">
         <v>72.697093368083699</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="54">
         <v>92782.657999999996</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="55">
         <v>14.6288676058407</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="54">
         <v>4508.4656000000004</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="55">
         <v>4.2390442332827396</v>
       </c>
-      <c r="K15" s="76">
+      <c r="K15" s="54">
         <v>16962.383999999998</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="55">
         <v>18.281847454725899</v>
       </c>
-      <c r="M15" s="77">
+      <c r="M15" s="55">
         <v>-0.73420802170261001</v>
       </c>
-      <c r="N15" s="76">
+      <c r="N15" s="54">
         <v>839272.39040000003</v>
       </c>
-      <c r="O15" s="76">
+      <c r="O15" s="54">
         <v>14163137.2608</v>
       </c>
-      <c r="P15" s="76">
+      <c r="P15" s="54">
         <v>3657</v>
       </c>
-      <c r="Q15" s="76">
+      <c r="Q15" s="54">
         <v>3558</v>
       </c>
-      <c r="R15" s="77">
+      <c r="R15" s="55">
         <v>2.7824620573355898</v>
       </c>
-      <c r="S15" s="76">
+      <c r="S15" s="54">
         <v>29.082775553732599</v>
       </c>
-      <c r="T15" s="76">
+      <c r="T15" s="54">
         <v>28.679662816188898</v>
       </c>
-      <c r="U15" s="78">
+      <c r="U15" s="56">
         <v>1.3860875720026</v>
       </c>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
     </row>
-    <row r="16" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="62" t="s">
+    <row r="16" spans="1:23" ht="12" thickBot="1">
+      <c r="A16" s="80"/>
+      <c r="B16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="76">
+      <c r="C16" s="68"/>
+      <c r="D16" s="54">
         <v>996670.92570000002</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="54">
         <v>981319.62879999995</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="55">
         <v>101.56435237301601</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="54">
         <v>709143.1102</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="55">
         <v>40.545809634801103</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="54">
         <v>-81708.918399999995</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="55">
         <v>-8.1981842043413398</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="54">
         <v>55182.850700000003</v>
       </c>
-      <c r="L16" s="77">
+      <c r="L16" s="55">
         <v>7.78162403417228</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="55">
         <v>-2.4806940446808099</v>
       </c>
-      <c r="N16" s="76">
+      <c r="N16" s="54">
         <v>7634271.7862</v>
       </c>
-      <c r="O16" s="76">
+      <c r="O16" s="54">
         <v>119214023.81829999</v>
       </c>
-      <c r="P16" s="76">
+      <c r="P16" s="54">
         <v>36796</v>
       </c>
-      <c r="Q16" s="76">
+      <c r="Q16" s="54">
         <v>30404</v>
       </c>
-      <c r="R16" s="77">
+      <c r="R16" s="55">
         <v>21.023549532956199</v>
       </c>
-      <c r="S16" s="76">
+      <c r="S16" s="54">
         <v>27.0863932411132</v>
       </c>
-      <c r="T16" s="76">
+      <c r="T16" s="54">
         <v>20.6098280028944</v>
       </c>
-      <c r="U16" s="78">
+      <c r="U16" s="56">
         <v>23.9107701810529</v>
       </c>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
     </row>
-    <row r="17" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="1:21" ht="12" thickBot="1">
+      <c r="A17" s="80"/>
+      <c r="B17" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="76">
+      <c r="C17" s="68"/>
+      <c r="D17" s="54">
         <v>725053.92839999998</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="54">
         <v>871250.51549999998</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="55">
         <v>83.219913848073901</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="54">
         <v>470086.14380000002</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="55">
         <v>54.238523718001098</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="54">
         <v>17315.0088</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="55">
         <v>2.3880994394733599</v>
       </c>
-      <c r="K17" s="76">
+      <c r="K17" s="54">
         <v>47708.3776</v>
       </c>
-      <c r="L17" s="77">
+      <c r="L17" s="55">
         <v>10.148858508005199</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="55">
         <v>-0.63706565448161501</v>
       </c>
-      <c r="N17" s="76">
+      <c r="N17" s="54">
         <v>6894579.7446999997</v>
       </c>
-      <c r="O17" s="76">
+      <c r="O17" s="54">
         <v>156468786.25299999</v>
       </c>
-      <c r="P17" s="76">
+      <c r="P17" s="54">
         <v>9860</v>
       </c>
-      <c r="Q17" s="76">
+      <c r="Q17" s="54">
         <v>8988</v>
       </c>
-      <c r="R17" s="77">
+      <c r="R17" s="55">
         <v>9.7018246550956793</v>
       </c>
-      <c r="S17" s="76">
+      <c r="S17" s="54">
         <v>73.534881176470606</v>
       </c>
-      <c r="T17" s="76">
+      <c r="T17" s="54">
         <v>66.357624354695204</v>
       </c>
-      <c r="U17" s="78">
+      <c r="U17" s="56">
         <v>9.7603432642412393</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="62" t="s">
+    <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A18" s="80"/>
+      <c r="B18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="76">
+      <c r="C18" s="68"/>
+      <c r="D18" s="54">
         <v>1410990.652</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="54">
         <v>1850583.7696</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="55">
         <v>76.245705554036206</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="54">
         <v>1523016.7104</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="55">
         <v>-7.35553704926705</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="54">
         <v>203275.38579999999</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="55">
         <v>14.4065721138456</v>
       </c>
-      <c r="K18" s="76">
+      <c r="K18" s="54">
         <v>192343.505</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="55">
         <v>12.629113238651399</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="55">
         <v>5.6835195968795001E-2</v>
       </c>
-      <c r="N18" s="76">
+      <c r="N18" s="54">
         <v>13927006.562799999</v>
       </c>
-      <c r="O18" s="76">
+      <c r="O18" s="54">
         <v>293206846.5927</v>
       </c>
-      <c r="P18" s="76">
+      <c r="P18" s="54">
         <v>67327</v>
       </c>
-      <c r="Q18" s="76">
+      <c r="Q18" s="54">
         <v>56851</v>
       </c>
-      <c r="R18" s="77">
+      <c r="R18" s="55">
         <v>18.427116497511001</v>
       </c>
-      <c r="S18" s="76">
+      <c r="S18" s="54">
         <v>20.9572779419846</v>
       </c>
-      <c r="T18" s="76">
+      <c r="T18" s="54">
         <v>21.671762864329601</v>
       </c>
-      <c r="U18" s="78">
+      <c r="U18" s="56">
         <v>-3.4092448662598702</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A19" s="80"/>
+      <c r="B19" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="76">
+      <c r="C19" s="68"/>
+      <c r="D19" s="54">
         <v>462992.35220000002</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="54">
         <v>580003.94649999996</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="55">
         <v>79.825724461686903</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="54">
         <v>627623.50829999999</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="55">
         <v>-26.230877894603601</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="54">
         <v>33207.425999999999</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="55">
         <v>7.1723487099102901</v>
       </c>
-      <c r="K19" s="76">
+      <c r="K19" s="54">
         <v>53162.314100000003</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="55">
         <v>8.4704147306395594</v>
       </c>
-      <c r="M19" s="77">
+      <c r="M19" s="55">
         <v>-0.37535777811447801</v>
       </c>
-      <c r="N19" s="76">
+      <c r="N19" s="54">
         <v>4281366.8175999997</v>
       </c>
-      <c r="O19" s="76">
+      <c r="O19" s="54">
         <v>81669948.148499995</v>
       </c>
-      <c r="P19" s="76">
+      <c r="P19" s="54">
         <v>9398</v>
       </c>
-      <c r="Q19" s="76">
+      <c r="Q19" s="54">
         <v>8419</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="55">
         <v>11.6284594369878</v>
       </c>
-      <c r="S19" s="76">
+      <c r="S19" s="54">
         <v>49.264987465418201</v>
       </c>
-      <c r="T19" s="76">
+      <c r="T19" s="54">
         <v>55.6334072811498</v>
       </c>
-      <c r="U19" s="78">
+      <c r="U19" s="56">
         <v>-12.9268678292103</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="62" t="s">
+    <row r="20" spans="1:21" ht="12" thickBot="1">
+      <c r="A20" s="80"/>
+      <c r="B20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="76">
+      <c r="C20" s="68"/>
+      <c r="D20" s="54">
         <v>882483.27650000004</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="54">
         <v>1037860.6185</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="55">
         <v>85.0290743062817</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="54">
         <v>995024.21939999994</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="55">
         <v>-11.310372220674401</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="54">
         <v>92866.371599999999</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="55">
         <v>10.5233010157785</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="54">
         <v>67458.244099999996</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="55">
         <v>6.7795580031888401</v>
       </c>
-      <c r="M20" s="77">
+      <c r="M20" s="55">
         <v>0.37664970144101401</v>
       </c>
-      <c r="N20" s="76">
+      <c r="N20" s="54">
         <v>7396392.8979000002</v>
       </c>
-      <c r="O20" s="76">
+      <c r="O20" s="54">
         <v>134277734.02430001</v>
       </c>
-      <c r="P20" s="76">
+      <c r="P20" s="54">
         <v>35856</v>
       </c>
-      <c r="Q20" s="76">
+      <c r="Q20" s="54">
         <v>32564</v>
       </c>
-      <c r="R20" s="77">
+      <c r="R20" s="55">
         <v>10.1093231789706</v>
       </c>
-      <c r="S20" s="76">
+      <c r="S20" s="54">
         <v>24.6118718345605</v>
       </c>
-      <c r="T20" s="76">
+      <c r="T20" s="54">
         <v>24.794639611227101</v>
       </c>
-      <c r="U20" s="78">
+      <c r="U20" s="56">
         <v>-0.74260006672882195</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62" t="s">
+    <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A21" s="80"/>
+      <c r="B21" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="76">
+      <c r="C21" s="68"/>
+      <c r="D21" s="54">
         <v>306181.60249999998</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="54">
         <v>451839.7598</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="55">
         <v>67.763315613377301</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="54">
         <v>405022.59110000002</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="55">
         <v>-24.403821113177401</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="54">
         <v>38867.632899999997</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="55">
         <v>12.694307098350199</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="54">
         <v>32291.174500000001</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="55">
         <v>7.9726847858783598</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="55">
         <v>0.20366117063967401</v>
       </c>
-      <c r="N21" s="76">
+      <c r="N21" s="54">
         <v>2627347.2747</v>
       </c>
-      <c r="O21" s="76">
+      <c r="O21" s="54">
         <v>49993227.231899999</v>
       </c>
-      <c r="P21" s="76">
+      <c r="P21" s="54">
         <v>26337</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="54">
         <v>23922</v>
       </c>
-      <c r="R21" s="77">
+      <c r="R21" s="55">
         <v>10.0953097567093</v>
       </c>
-      <c r="S21" s="76">
+      <c r="S21" s="54">
         <v>11.625530717241899</v>
       </c>
-      <c r="T21" s="76">
+      <c r="T21" s="54">
         <v>11.5608813477134</v>
       </c>
-      <c r="U21" s="78">
+      <c r="U21" s="56">
         <v>0.55609822124179997</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="62" t="s">
+    <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A22" s="80"/>
+      <c r="B22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="76">
+      <c r="C22" s="68"/>
+      <c r="D22" s="54">
         <v>1082068.4896</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="54">
         <v>1295950.6858000001</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="55">
         <v>83.496116129760793</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="54">
         <v>1066825.0847</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="55">
         <v>1.4288569999539</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="54">
         <v>71862.4084</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="55">
         <v>6.6412070114494197</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="54">
         <v>128560.0866</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="55">
         <v>12.0507183833376</v>
       </c>
-      <c r="M22" s="77">
+      <c r="M22" s="55">
         <v>-0.441020846356524</v>
       </c>
-      <c r="N22" s="76">
+      <c r="N22" s="54">
         <v>9193463.0503000002</v>
       </c>
-      <c r="O22" s="76">
+      <c r="O22" s="54">
         <v>153089915.28799999</v>
       </c>
-      <c r="P22" s="76">
+      <c r="P22" s="54">
         <v>66922</v>
       </c>
-      <c r="Q22" s="76">
+      <c r="Q22" s="54">
         <v>56233</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="55">
         <v>19.008411431010298</v>
       </c>
-      <c r="S22" s="76">
+      <c r="S22" s="54">
         <v>16.169099692179</v>
       </c>
-      <c r="T22" s="76">
+      <c r="T22" s="54">
         <v>16.4814124819946</v>
       </c>
-      <c r="U22" s="78">
+      <c r="U22" s="56">
         <v>-1.9315409995689099</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="62" t="s">
+    <row r="23" spans="1:21" ht="12" thickBot="1">
+      <c r="A23" s="80"/>
+      <c r="B23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="76">
+      <c r="C23" s="68"/>
+      <c r="D23" s="54">
         <v>2357038.9045000002</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="54">
         <v>2838827.0685000001</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="55">
         <v>83.028618779002599</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="54">
         <v>2473448.3295</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="55">
         <v>-4.70636170610977</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="54">
         <v>89818.601999999999</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="55">
         <v>3.8106541995773</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="54">
         <v>217192.26329999999</v>
       </c>
-      <c r="L23" s="77">
+      <c r="L23" s="55">
         <v>8.7809500893800703</v>
       </c>
-      <c r="M23" s="77">
+      <c r="M23" s="55">
         <v>-0.58645579434872996</v>
       </c>
-      <c r="N23" s="76">
+      <c r="N23" s="54">
         <v>19453589.029300001</v>
       </c>
-      <c r="O23" s="76">
+      <c r="O23" s="54">
         <v>341263420.81120002</v>
       </c>
-      <c r="P23" s="76">
+      <c r="P23" s="54">
         <v>66010</v>
       </c>
-      <c r="Q23" s="76">
+      <c r="Q23" s="54">
         <v>57851</v>
       </c>
-      <c r="R23" s="77">
+      <c r="R23" s="55">
         <v>14.103472714386999</v>
       </c>
-      <c r="S23" s="76">
+      <c r="S23" s="54">
         <v>35.707300477200398</v>
       </c>
-      <c r="T23" s="76">
+      <c r="T23" s="54">
         <v>41.1581954417383</v>
       </c>
-      <c r="U23" s="78">
+      <c r="U23" s="56">
         <v>-15.265491626896599</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="62" t="s">
+    <row r="24" spans="1:21" ht="12" thickBot="1">
+      <c r="A24" s="80"/>
+      <c r="B24" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="76">
+      <c r="C24" s="68"/>
+      <c r="D24" s="54">
         <v>228032.14509999999</v>
       </c>
-      <c r="E24" s="76">
+      <c r="E24" s="54">
         <v>231256.86429999999</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="55">
         <v>98.605568223991497</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="54">
         <v>216359.1874</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="55">
         <v>5.39517542114785</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="54">
         <v>30723.7569</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="55">
         <v>13.4734323910897</v>
       </c>
-      <c r="K24" s="76">
+      <c r="K24" s="54">
         <v>32552.7641</v>
       </c>
-      <c r="L24" s="77">
+      <c r="L24" s="55">
         <v>15.0457045486204</v>
       </c>
-      <c r="M24" s="77">
+      <c r="M24" s="55">
         <v>-5.6185926159186002E-2</v>
       </c>
-      <c r="N24" s="76">
+      <c r="N24" s="54">
         <v>1865141.4657000001</v>
       </c>
-      <c r="O24" s="76">
+      <c r="O24" s="54">
         <v>34735679.1699</v>
       </c>
-      <c r="P24" s="76">
+      <c r="P24" s="54">
         <v>23854</v>
       </c>
-      <c r="Q24" s="76">
+      <c r="Q24" s="54">
         <v>21824</v>
       </c>
-      <c r="R24" s="77">
+      <c r="R24" s="55">
         <v>9.3016862170088004</v>
       </c>
-      <c r="S24" s="76">
+      <c r="S24" s="54">
         <v>9.5594929613481998</v>
       </c>
-      <c r="T24" s="76">
+      <c r="T24" s="54">
         <v>9.3926555718475093</v>
       </c>
-      <c r="U24" s="78">
+      <c r="U24" s="56">
         <v>1.74525354195321</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="62" t="s">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
+      <c r="A25" s="80"/>
+      <c r="B25" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="76">
+      <c r="C25" s="68"/>
+      <c r="D25" s="54">
         <v>215347.47659999999</v>
       </c>
-      <c r="E25" s="76">
+      <c r="E25" s="54">
         <v>247692.2065</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="55">
         <v>86.941563339014493</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="54">
         <v>191001.4129</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="55">
         <v>12.746535918426201</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="54">
         <v>17273.2127</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="55">
         <v>8.0210889733731907</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="54">
         <v>19545.949199999999</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="55">
         <v>10.2334055561324</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="55">
         <v>-0.116276599143111</v>
       </c>
-      <c r="N25" s="76">
+      <c r="N25" s="54">
         <v>2247294.5521999998</v>
       </c>
-      <c r="O25" s="76">
+      <c r="O25" s="54">
         <v>46983794.922499999</v>
       </c>
-      <c r="P25" s="76">
+      <c r="P25" s="54">
         <v>15204</v>
       </c>
-      <c r="Q25" s="76">
+      <c r="Q25" s="54">
         <v>13847</v>
       </c>
-      <c r="R25" s="77">
+      <c r="R25" s="55">
         <v>9.7999566693146605</v>
       </c>
-      <c r="S25" s="76">
+      <c r="S25" s="54">
         <v>14.1638698105762</v>
       </c>
-      <c r="T25" s="76">
+      <c r="T25" s="54">
         <v>13.808715172961699</v>
       </c>
-      <c r="U25" s="78">
+      <c r="U25" s="56">
         <v>2.5074689499709999</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="62" t="s">
+    <row r="26" spans="1:21" ht="12" thickBot="1">
+      <c r="A26" s="80"/>
+      <c r="B26" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="76">
+      <c r="C26" s="68"/>
+      <c r="D26" s="54">
         <v>591108.34990000003</v>
       </c>
-      <c r="E26" s="76">
+      <c r="E26" s="54">
         <v>610200.45380000002</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="55">
         <v>96.871175073518103</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="54">
         <v>558020.58499999996</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="55">
         <v>5.9294882284674202</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="54">
         <v>128961.28419999999</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="55">
         <v>21.816860516657702</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="54">
         <v>118699.9081</v>
       </c>
-      <c r="L26" s="77">
+      <c r="L26" s="55">
         <v>21.271600240338799</v>
       </c>
-      <c r="M26" s="77">
+      <c r="M26" s="55">
         <v>8.6448054292976001E-2</v>
       </c>
-      <c r="N26" s="76">
+      <c r="N26" s="54">
         <v>4275846.7204999998</v>
       </c>
-      <c r="O26" s="76">
+      <c r="O26" s="54">
         <v>80461403.389899999</v>
       </c>
-      <c r="P26" s="76">
+      <c r="P26" s="54">
         <v>43423</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="54">
         <v>36752</v>
       </c>
-      <c r="R26" s="77">
+      <c r="R26" s="55">
         <v>18.151393121462799</v>
       </c>
-      <c r="S26" s="76">
+      <c r="S26" s="54">
         <v>13.612793908758</v>
       </c>
-      <c r="T26" s="76">
+      <c r="T26" s="54">
         <v>14.115683165542</v>
       </c>
-      <c r="U26" s="78">
+      <c r="U26" s="56">
         <v>-3.6942398463877</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="62" t="s">
+    <row r="27" spans="1:21" ht="12" thickBot="1">
+      <c r="A27" s="80"/>
+      <c r="B27" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="76">
+      <c r="C27" s="68"/>
+      <c r="D27" s="54">
         <v>219970.5699</v>
       </c>
-      <c r="E27" s="76">
+      <c r="E27" s="54">
         <v>280748.74180000002</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="55">
         <v>78.351400077405401</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="54">
         <v>252545.71239999999</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="55">
         <v>-12.898711362165299</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="54">
         <v>60248.328699999998</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="55">
         <v>27.389267904060699</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="54">
         <v>68222.987599999993</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="55">
         <v>27.014114376229699</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="55">
         <v>-0.11689108291118</v>
       </c>
-      <c r="N27" s="76">
+      <c r="N27" s="54">
         <v>1882592.4926</v>
       </c>
-      <c r="O27" s="76">
+      <c r="O27" s="54">
         <v>26985294.5887</v>
       </c>
-      <c r="P27" s="76">
+      <c r="P27" s="54">
         <v>28056</v>
       </c>
-      <c r="Q27" s="76">
+      <c r="Q27" s="54">
         <v>25332</v>
       </c>
-      <c r="R27" s="77">
+      <c r="R27" s="55">
         <v>10.7531975367125</v>
       </c>
-      <c r="S27" s="76">
+      <c r="S27" s="54">
         <v>7.8404109602224104</v>
       </c>
-      <c r="T27" s="76">
+      <c r="T27" s="54">
         <v>7.7806385086057199</v>
       </c>
-      <c r="U27" s="78">
+      <c r="U27" s="56">
         <v>0.76236375771559095</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="1:21" ht="12" thickBot="1">
+      <c r="A28" s="80"/>
+      <c r="B28" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="76">
+      <c r="C28" s="68"/>
+      <c r="D28" s="54">
         <v>744722.5209</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="54">
         <v>771088.2476</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="55">
         <v>96.580712158165696</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="54">
         <v>672128.75230000005</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="55">
         <v>10.800574793384</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="54">
         <v>38978.451200000003</v>
       </c>
-      <c r="J28" s="77">
+      <c r="J28" s="55">
         <v>5.2339562865501099</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="54">
         <v>29285.994200000001</v>
       </c>
-      <c r="L28" s="77">
+      <c r="L28" s="55">
         <v>4.3572000304680296</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="55">
         <v>0.33095878302127102</v>
       </c>
-      <c r="N28" s="76">
+      <c r="N28" s="54">
         <v>6389627.7653999999</v>
       </c>
-      <c r="O28" s="76">
+      <c r="O28" s="54">
         <v>115093311.3744</v>
       </c>
-      <c r="P28" s="76">
+      <c r="P28" s="54">
         <v>34606</v>
       </c>
-      <c r="Q28" s="76">
+      <c r="Q28" s="54">
         <v>32430</v>
       </c>
-      <c r="R28" s="77">
+      <c r="R28" s="55">
         <v>6.7098365710761598</v>
       </c>
-      <c r="S28" s="76">
+      <c r="S28" s="54">
         <v>21.5200404814194</v>
       </c>
-      <c r="T28" s="76">
+      <c r="T28" s="54">
         <v>20.8468326888683</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="56">
         <v>3.1282831142084899</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62" t="s">
+    <row r="29" spans="1:21" ht="12" thickBot="1">
+      <c r="A29" s="80"/>
+      <c r="B29" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="76">
+      <c r="C29" s="68"/>
+      <c r="D29" s="54">
         <v>822706.51190000004</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="54">
         <v>632231.94369999995</v>
       </c>
-      <c r="F29" s="77">
+      <c r="F29" s="55">
         <v>130.12732433057499</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="54">
         <v>786667.04920000001</v>
       </c>
-      <c r="H29" s="77">
+      <c r="H29" s="55">
         <v>4.5812854036088302</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="54">
         <v>112639.2902</v>
       </c>
-      <c r="J29" s="77">
+      <c r="J29" s="55">
         <v>13.691308938331501</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="54">
         <v>109566.8763</v>
       </c>
-      <c r="L29" s="77">
+      <c r="L29" s="55">
         <v>13.927985977221701</v>
       </c>
-      <c r="M29" s="77">
+      <c r="M29" s="55">
         <v>2.8041448325929998E-2</v>
       </c>
-      <c r="N29" s="76">
+      <c r="N29" s="54">
         <v>6475026.6919999998</v>
       </c>
-      <c r="O29" s="76">
+      <c r="O29" s="54">
         <v>80362644.746199995</v>
       </c>
-      <c r="P29" s="76">
+      <c r="P29" s="54">
         <v>101013</v>
       </c>
-      <c r="Q29" s="76">
+      <c r="Q29" s="54">
         <v>93610</v>
       </c>
-      <c r="R29" s="77">
+      <c r="R29" s="55">
         <v>7.9083431257344303</v>
       </c>
-      <c r="S29" s="76">
+      <c r="S29" s="54">
         <v>8.1445607189173703</v>
       </c>
-      <c r="T29" s="76">
+      <c r="T29" s="54">
         <v>8.2830053146031393</v>
       </c>
-      <c r="U29" s="78">
+      <c r="U29" s="56">
         <v>-1.6998411634922099</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:21" ht="12" thickBot="1">
+      <c r="A30" s="80"/>
+      <c r="B30" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="76">
+      <c r="C30" s="68"/>
+      <c r="D30" s="54">
         <v>1103524.0830999999</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="54">
         <v>1360919.5307</v>
       </c>
-      <c r="F30" s="77">
+      <c r="F30" s="55">
         <v>81.086651944247805</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="54">
         <v>1187573.5481</v>
       </c>
-      <c r="H30" s="77">
+      <c r="H30" s="55">
         <v>-7.0774113430255197</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="54">
         <v>109874.27740000001</v>
       </c>
-      <c r="J30" s="77">
+      <c r="J30" s="55">
         <v>9.9566723629033191</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="54">
         <v>100717.19070000001</v>
       </c>
-      <c r="L30" s="77">
+      <c r="L30" s="55">
         <v>8.4809223699144791</v>
       </c>
-      <c r="M30" s="77">
+      <c r="M30" s="55">
         <v>9.0918805780392006E-2</v>
       </c>
-      <c r="N30" s="76">
+      <c r="N30" s="54">
         <v>9590670.8805999998</v>
       </c>
-      <c r="O30" s="76">
+      <c r="O30" s="54">
         <v>113821365.1944</v>
       </c>
-      <c r="P30" s="76">
+      <c r="P30" s="54">
         <v>75007</v>
       </c>
-      <c r="Q30" s="76">
+      <c r="Q30" s="54">
         <v>66844</v>
       </c>
-      <c r="R30" s="77">
+      <c r="R30" s="55">
         <v>12.2120160373407</v>
       </c>
-      <c r="S30" s="76">
+      <c r="S30" s="54">
         <v>14.7122812950791</v>
       </c>
-      <c r="T30" s="76">
+      <c r="T30" s="54">
         <v>14.2731129959308</v>
       </c>
-      <c r="U30" s="78">
+      <c r="U30" s="56">
         <v>2.9850455571100998</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="62" t="s">
+    <row r="31" spans="1:21" ht="12" thickBot="1">
+      <c r="A31" s="80"/>
+      <c r="B31" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="76">
+      <c r="C31" s="68"/>
+      <c r="D31" s="54">
         <v>812206.8014</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="54">
         <v>869736.80929999996</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="55">
         <v>93.385354364120502</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="54">
         <v>798098.21620000002</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="55">
         <v>1.76777555864933</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="54">
         <v>21989.6921</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="55">
         <v>2.7074006351703002</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="54">
         <v>30664.4663</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="55">
         <v>3.8421920607720801</v>
       </c>
-      <c r="M31" s="77">
+      <c r="M31" s="55">
         <v>-0.28289336964589501</v>
       </c>
-      <c r="N31" s="76">
+      <c r="N31" s="54">
         <v>6761415.8673</v>
       </c>
-      <c r="O31" s="76">
+      <c r="O31" s="54">
         <v>140759379.21849999</v>
       </c>
-      <c r="P31" s="76">
+      <c r="P31" s="54">
         <v>35900</v>
       </c>
-      <c r="Q31" s="76">
+      <c r="Q31" s="54">
         <v>28130</v>
       </c>
-      <c r="R31" s="77">
+      <c r="R31" s="55">
         <v>27.621756132243199</v>
       </c>
-      <c r="S31" s="76">
+      <c r="S31" s="54">
         <v>22.6241448857939</v>
       </c>
-      <c r="T31" s="76">
+      <c r="T31" s="54">
         <v>24.4301399040171</v>
       </c>
-      <c r="U31" s="78">
+      <c r="U31" s="56">
         <v>-7.9826001262801798</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="62" t="s">
+    <row r="32" spans="1:21" ht="12" thickBot="1">
+      <c r="A32" s="80"/>
+      <c r="B32" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="76">
+      <c r="C32" s="68"/>
+      <c r="D32" s="54">
         <v>98287.765499999994</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="54">
         <v>122068.63679999999</v>
       </c>
-      <c r="F32" s="77">
+      <c r="F32" s="55">
         <v>80.518442801189707</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="54">
         <v>116969.56020000001</v>
       </c>
-      <c r="H32" s="77">
+      <c r="H32" s="55">
         <v>-15.9715011906149</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="54">
         <v>27939.052299999999</v>
       </c>
-      <c r="J32" s="77">
+      <c r="J32" s="55">
         <v>28.425768108442799</v>
       </c>
-      <c r="K32" s="76">
+      <c r="K32" s="54">
         <v>34197.760600000001</v>
       </c>
-      <c r="L32" s="77">
+      <c r="L32" s="55">
         <v>29.236461641410902</v>
       </c>
-      <c r="M32" s="77">
+      <c r="M32" s="55">
         <v>-0.18301515041309499</v>
       </c>
-      <c r="N32" s="76">
+      <c r="N32" s="54">
         <v>816552.20589999994</v>
       </c>
-      <c r="O32" s="76">
+      <c r="O32" s="54">
         <v>13132906.032</v>
       </c>
-      <c r="P32" s="76">
+      <c r="P32" s="54">
         <v>20775</v>
       </c>
-      <c r="Q32" s="76">
+      <c r="Q32" s="54">
         <v>19583</v>
       </c>
-      <c r="R32" s="77">
+      <c r="R32" s="55">
         <v>6.0869121176530703</v>
       </c>
-      <c r="S32" s="76">
+      <c r="S32" s="54">
         <v>4.7310597111913397</v>
       </c>
-      <c r="T32" s="76">
+      <c r="T32" s="54">
         <v>4.7680153500485103</v>
       </c>
-      <c r="U32" s="78">
+      <c r="U32" s="56">
         <v>-0.78112814280818199</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="62" t="s">
+    <row r="33" spans="1:21" ht="12" thickBot="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="76">
+      <c r="C33" s="68"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="54">
         <v>8.6725999999999992</v>
       </c>
-      <c r="O33" s="76">
+      <c r="O33" s="54">
         <v>299.97789999999998</v>
       </c>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="80"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="58"/>
     </row>
-    <row r="34" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="62" t="s">
+    <row r="34" spans="1:21" ht="12" thickBot="1">
+      <c r="A34" s="80"/>
+      <c r="B34" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="76">
+      <c r="C34" s="68"/>
+      <c r="D34" s="54">
         <v>121744.51730000001</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="54">
         <v>133615.10550000001</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="55">
         <v>91.115833680945599</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="54">
         <v>107029.44650000001</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="55">
         <v>13.7486189840288</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="54">
         <v>14325.345300000001</v>
       </c>
-      <c r="J34" s="77">
+      <c r="J34" s="55">
         <v>11.766727256144</v>
       </c>
-      <c r="K34" s="76">
+      <c r="K34" s="54">
         <v>11707.050300000001</v>
       </c>
-      <c r="L34" s="77">
+      <c r="L34" s="55">
         <v>10.9381583132825</v>
       </c>
-      <c r="M34" s="77">
+      <c r="M34" s="55">
         <v>0.22365112756028699</v>
       </c>
-      <c r="N34" s="76">
+      <c r="N34" s="54">
         <v>993463.49309999996</v>
       </c>
-      <c r="O34" s="76">
+      <c r="O34" s="54">
         <v>23889106.1602</v>
       </c>
-      <c r="P34" s="76">
+      <c r="P34" s="54">
         <v>8268</v>
       </c>
-      <c r="Q34" s="76">
+      <c r="Q34" s="54">
         <v>6849</v>
       </c>
-      <c r="R34" s="77">
+      <c r="R34" s="55">
         <v>20.718353044240001</v>
       </c>
-      <c r="S34" s="76">
+      <c r="S34" s="54">
         <v>14.724784385583</v>
       </c>
-      <c r="T34" s="76">
+      <c r="T34" s="54">
         <v>14.9044679807271</v>
       </c>
-      <c r="U34" s="78">
+      <c r="U34" s="56">
         <v>-1.2202799744903099</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="62" t="s">
+    <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A35" s="80"/>
+      <c r="B35" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="76">
+      <c r="C35" s="68"/>
+      <c r="D35" s="54">
         <v>57470.98</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="76">
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="54">
         <v>8256.41</v>
       </c>
-      <c r="H35" s="77">
+      <c r="H35" s="55">
         <v>596.07710857382301</v>
       </c>
-      <c r="I35" s="76">
+      <c r="I35" s="54">
         <v>2204.9299999999998</v>
       </c>
-      <c r="J35" s="77">
+      <c r="J35" s="55">
         <v>3.8365971834828598</v>
       </c>
-      <c r="K35" s="76">
+      <c r="K35" s="54">
         <v>-51.28</v>
       </c>
-      <c r="L35" s="77">
+      <c r="L35" s="55">
         <v>-0.621093186990472</v>
       </c>
-      <c r="M35" s="77">
+      <c r="M35" s="55">
         <v>-43.997854914196601</v>
       </c>
-      <c r="N35" s="76">
+      <c r="N35" s="54">
         <v>666090.92000000004</v>
       </c>
-      <c r="O35" s="76">
+      <c r="O35" s="54">
         <v>15866931.15</v>
       </c>
-      <c r="P35" s="76">
+      <c r="P35" s="54">
         <v>37</v>
       </c>
-      <c r="Q35" s="76">
+      <c r="Q35" s="54">
         <v>53</v>
       </c>
-      <c r="R35" s="77">
+      <c r="R35" s="55">
         <v>-30.188679245283002</v>
       </c>
-      <c r="S35" s="76">
+      <c r="S35" s="54">
         <v>1553.26972972973</v>
       </c>
-      <c r="T35" s="76">
+      <c r="T35" s="54">
         <v>1107.7896226415101</v>
       </c>
-      <c r="U35" s="78">
+      <c r="U35" s="56">
         <v>28.680151203727799</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62" t="s">
+    <row r="36" spans="1:21" ht="12" thickBot="1">
+      <c r="A36" s="80"/>
+      <c r="B36" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="76">
+      <c r="C36" s="68"/>
+      <c r="D36" s="54">
         <v>138055.64000000001</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="76">
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="54">
         <v>107482.11</v>
       </c>
-      <c r="H36" s="77">
+      <c r="H36" s="55">
         <v>28.445226838215198</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="54">
         <v>-15903.43</v>
       </c>
-      <c r="J36" s="77">
+      <c r="J36" s="55">
         <v>-11.5195800765546</v>
       </c>
-      <c r="K36" s="76">
+      <c r="K36" s="54">
         <v>-4849.6400000000003</v>
       </c>
-      <c r="L36" s="77">
+      <c r="L36" s="55">
         <v>-4.5120439113076598</v>
       </c>
-      <c r="M36" s="77">
+      <c r="M36" s="55">
         <v>2.27930114400244</v>
       </c>
-      <c r="N36" s="76">
+      <c r="N36" s="54">
         <v>876178.24</v>
       </c>
-      <c r="O36" s="76">
+      <c r="O36" s="54">
         <v>51146319.689999998</v>
       </c>
-      <c r="P36" s="76">
+      <c r="P36" s="54">
         <v>67</v>
       </c>
-      <c r="Q36" s="76">
+      <c r="Q36" s="54">
         <v>49</v>
       </c>
-      <c r="R36" s="77">
+      <c r="R36" s="55">
         <v>36.734693877551003</v>
       </c>
-      <c r="S36" s="76">
+      <c r="S36" s="54">
         <v>2060.5319402985101</v>
       </c>
-      <c r="T36" s="76">
+      <c r="T36" s="54">
         <v>1610.5016326530599</v>
       </c>
-      <c r="U36" s="78">
+      <c r="U36" s="56">
         <v>21.840491712069799</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="62" t="s">
+    <row r="37" spans="1:21" ht="12" thickBot="1">
+      <c r="A37" s="80"/>
+      <c r="B37" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="76">
+      <c r="C37" s="68"/>
+      <c r="D37" s="54">
         <v>82479.520000000004</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="76">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="54">
         <v>74347.850000000006</v>
       </c>
-      <c r="H37" s="77">
+      <c r="H37" s="55">
         <v>10.937330400273799</v>
       </c>
-      <c r="I37" s="76">
+      <c r="I37" s="54">
         <v>-2066.61</v>
       </c>
-      <c r="J37" s="77">
+      <c r="J37" s="55">
         <v>-2.5056038153471301</v>
       </c>
-      <c r="K37" s="76">
+      <c r="K37" s="54">
         <v>-2128.25</v>
       </c>
-      <c r="L37" s="77">
+      <c r="L37" s="55">
         <v>-2.86255755882652</v>
       </c>
-      <c r="M37" s="77">
+      <c r="M37" s="55">
         <v>-2.8962762833314001E-2</v>
       </c>
-      <c r="N37" s="76">
+      <c r="N37" s="54">
         <v>253992.31</v>
       </c>
-      <c r="O37" s="76">
+      <c r="O37" s="54">
         <v>24619289.510000002</v>
       </c>
-      <c r="P37" s="76">
+      <c r="P37" s="54">
         <v>32</v>
       </c>
-      <c r="Q37" s="76">
+      <c r="Q37" s="54">
         <v>4</v>
       </c>
-      <c r="R37" s="77">
+      <c r="R37" s="55">
         <v>700</v>
       </c>
-      <c r="S37" s="76">
+      <c r="S37" s="54">
         <v>2577.4850000000001</v>
       </c>
-      <c r="T37" s="76">
+      <c r="T37" s="54">
         <v>2549.5725000000002</v>
       </c>
-      <c r="U37" s="78">
+      <c r="U37" s="56">
         <v>1.08293549719979</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="62" t="s">
+    <row r="38" spans="1:21" ht="12" thickBot="1">
+      <c r="A38" s="80"/>
+      <c r="B38" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="76">
+      <c r="C38" s="68"/>
+      <c r="D38" s="54">
         <v>112850.56</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="76">
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="54">
         <v>130488.19</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="55">
         <v>-13.5166485181533</v>
       </c>
-      <c r="I38" s="76">
+      <c r="I38" s="54">
         <v>-10906.84</v>
       </c>
-      <c r="J38" s="77">
+      <c r="J38" s="55">
         <v>-9.6648523498687098</v>
       </c>
-      <c r="K38" s="76">
+      <c r="K38" s="54">
         <v>-18338.47</v>
       </c>
-      <c r="L38" s="77">
+      <c r="L38" s="55">
         <v>-14.053739269431199</v>
       </c>
-      <c r="M38" s="77">
+      <c r="M38" s="55">
         <v>-0.40524809321606398</v>
       </c>
-      <c r="N38" s="76">
+      <c r="N38" s="54">
         <v>798058.01</v>
       </c>
-      <c r="O38" s="76">
+      <c r="O38" s="54">
         <v>28660730.82</v>
       </c>
-      <c r="P38" s="76">
+      <c r="P38" s="54">
         <v>74</v>
       </c>
-      <c r="Q38" s="76">
+      <c r="Q38" s="54">
         <v>31</v>
       </c>
-      <c r="R38" s="77">
+      <c r="R38" s="55">
         <v>138.70967741935499</v>
       </c>
-      <c r="S38" s="76">
+      <c r="S38" s="54">
         <v>1525.00756756757</v>
       </c>
-      <c r="T38" s="76">
+      <c r="T38" s="54">
         <v>1414.6964516129001</v>
       </c>
-      <c r="U38" s="78">
+      <c r="U38" s="56">
         <v>7.2334799053236196</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="62" t="s">
+    <row r="39" spans="1:21" ht="12" thickBot="1">
+      <c r="A39" s="80"/>
+      <c r="B39" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="76">
+      <c r="C39" s="68"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="54">
         <v>6.84</v>
       </c>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="76">
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="54">
         <v>6.16</v>
       </c>
-      <c r="L39" s="77">
+      <c r="L39" s="55">
         <v>90.058479532163702</v>
       </c>
-      <c r="M39" s="79"/>
-      <c r="N39" s="76">
+      <c r="M39" s="57"/>
+      <c r="N39" s="54">
         <v>5.75</v>
       </c>
-      <c r="O39" s="76">
+      <c r="O39" s="54">
         <v>1233.06</v>
       </c>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="76">
+      <c r="P39" s="57"/>
+      <c r="Q39" s="54">
         <v>18</v>
       </c>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="76">
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="54">
         <v>0.13</v>
       </c>
-      <c r="U39" s="80"/>
+      <c r="U39" s="58"/>
     </row>
-    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="62" t="s">
+    <row r="40" spans="1:21" ht="12" customHeight="1" thickBot="1">
+      <c r="A40" s="80"/>
+      <c r="B40" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="76">
+      <c r="C40" s="68"/>
+      <c r="D40" s="54">
         <v>42670.085500000001</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="76">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="54">
         <v>152266.666</v>
       </c>
-      <c r="H40" s="77">
+      <c r="H40" s="55">
         <v>-71.976738822139794</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="54">
         <v>2504.7784000000001</v>
       </c>
-      <c r="J40" s="77">
+      <c r="J40" s="55">
         <v>5.8701040099861101</v>
       </c>
-      <c r="K40" s="76">
+      <c r="K40" s="54">
         <v>8943.6304999999993</v>
       </c>
-      <c r="L40" s="77">
+      <c r="L40" s="55">
         <v>5.8736627884135899</v>
       </c>
-      <c r="M40" s="77">
+      <c r="M40" s="55">
         <v>-0.719937177637202</v>
       </c>
-      <c r="N40" s="76">
+      <c r="N40" s="54">
         <v>482426.07610000001</v>
       </c>
-      <c r="O40" s="76">
+      <c r="O40" s="54">
         <v>10359268.205700001</v>
       </c>
-      <c r="P40" s="76">
+      <c r="P40" s="54">
         <v>77</v>
       </c>
-      <c r="Q40" s="76">
+      <c r="Q40" s="54">
         <v>83</v>
       </c>
-      <c r="R40" s="77">
+      <c r="R40" s="55">
         <v>-7.2289156626505999</v>
       </c>
-      <c r="S40" s="76">
+      <c r="S40" s="54">
         <v>554.15695454545505</v>
       </c>
-      <c r="T40" s="76">
+      <c r="T40" s="54">
         <v>484.62567590361499</v>
       </c>
-      <c r="U40" s="78">
+      <c r="U40" s="56">
         <v>12.547217547576</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="62" t="s">
+    <row r="41" spans="1:21" ht="12" thickBot="1">
+      <c r="A41" s="80"/>
+      <c r="B41" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="76">
+      <c r="C41" s="68"/>
+      <c r="D41" s="54">
         <v>271320.41220000002</v>
       </c>
-      <c r="E41" s="76">
+      <c r="E41" s="54">
         <v>600500.32200000004</v>
       </c>
-      <c r="F41" s="77">
+      <c r="F41" s="55">
         <v>45.182392458400699</v>
       </c>
-      <c r="G41" s="76">
+      <c r="G41" s="54">
         <v>376544.54200000002</v>
       </c>
-      <c r="H41" s="77">
+      <c r="H41" s="55">
         <v>-27.944670035875902</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="54">
         <v>9215.6543000000001</v>
       </c>
-      <c r="J41" s="77">
+      <c r="J41" s="55">
         <v>3.3965945375340199</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="54">
         <v>24998.030699999999</v>
       </c>
-      <c r="L41" s="77">
+      <c r="L41" s="55">
         <v>6.6387977813259598</v>
       </c>
-      <c r="M41" s="77">
+      <c r="M41" s="55">
         <v>-0.63134478829166296</v>
       </c>
-      <c r="N41" s="76">
+      <c r="N41" s="54">
         <v>2384048.1490000002</v>
       </c>
-      <c r="O41" s="76">
+      <c r="O41" s="54">
         <v>56991206.254000001</v>
       </c>
-      <c r="P41" s="76">
+      <c r="P41" s="54">
         <v>1559</v>
       </c>
-      <c r="Q41" s="76">
+      <c r="Q41" s="54">
         <v>1460</v>
       </c>
-      <c r="R41" s="77">
+      <c r="R41" s="55">
         <v>6.7808219178082201</v>
       </c>
-      <c r="S41" s="76">
+      <c r="S41" s="54">
         <v>174.03490198845401</v>
       </c>
-      <c r="T41" s="76">
+      <c r="T41" s="54">
         <v>192.02526931506901</v>
       </c>
-      <c r="U41" s="78">
+      <c r="U41" s="56">
         <v>-10.337218064344301</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="62" t="s">
+    <row r="42" spans="1:21" ht="12" thickBot="1">
+      <c r="A42" s="80"/>
+      <c r="B42" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="76">
+      <c r="C42" s="68"/>
+      <c r="D42" s="54">
         <v>89470.97</v>
       </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="76">
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="54">
         <v>72732.52</v>
       </c>
-      <c r="H42" s="77">
+      <c r="H42" s="55">
         <v>23.0137083109454</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="54">
         <v>-13680.32</v>
       </c>
-      <c r="J42" s="77">
+      <c r="J42" s="55">
         <v>-15.2902332454873</v>
       </c>
-      <c r="K42" s="76">
+      <c r="K42" s="54">
         <v>-8055.16</v>
       </c>
-      <c r="L42" s="77">
+      <c r="L42" s="55">
         <v>-11.075045935435799</v>
       </c>
-      <c r="M42" s="77">
+      <c r="M42" s="55">
         <v>0.69833001454968002</v>
       </c>
-      <c r="N42" s="76">
+      <c r="N42" s="54">
         <v>698832.72</v>
       </c>
-      <c r="O42" s="76">
+      <c r="O42" s="54">
         <v>23928279.300000001</v>
       </c>
-      <c r="P42" s="76">
+      <c r="P42" s="54">
         <v>66</v>
       </c>
-      <c r="Q42" s="76">
+      <c r="Q42" s="54">
         <v>37</v>
       </c>
-      <c r="R42" s="77">
+      <c r="R42" s="55">
         <v>78.3783783783784</v>
       </c>
-      <c r="S42" s="76">
+      <c r="S42" s="54">
         <v>1355.6207575757601</v>
       </c>
-      <c r="T42" s="76">
+      <c r="T42" s="54">
         <v>1272.37297297297</v>
       </c>
-      <c r="U42" s="78">
+      <c r="U42" s="56">
         <v>6.14093463364014</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="62" t="s">
+    <row r="43" spans="1:21" ht="12" thickBot="1">
+      <c r="A43" s="80"/>
+      <c r="B43" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="76">
+      <c r="C43" s="68"/>
+      <c r="D43" s="54">
         <v>32547.040000000001</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="76">
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="54">
         <v>34871.81</v>
       </c>
-      <c r="H43" s="77">
+      <c r="H43" s="55">
         <v>-6.6666169608058699</v>
       </c>
-      <c r="I43" s="76">
+      <c r="I43" s="54">
         <v>4342.6499999999996</v>
       </c>
-      <c r="J43" s="77">
+      <c r="J43" s="55">
         <v>13.3426879986629</v>
       </c>
-      <c r="K43" s="76">
+      <c r="K43" s="54">
         <v>4777.25</v>
       </c>
-      <c r="L43" s="77">
+      <c r="L43" s="55">
         <v>13.699460968616201</v>
       </c>
-      <c r="M43" s="77">
+      <c r="M43" s="55">
         <v>-9.0972840023025997E-2</v>
       </c>
-      <c r="N43" s="76">
+      <c r="N43" s="54">
         <v>317451.52000000002</v>
       </c>
-      <c r="O43" s="76">
+      <c r="O43" s="54">
         <v>8865679.0500000007</v>
       </c>
-      <c r="P43" s="76">
+      <c r="P43" s="54">
         <v>38</v>
       </c>
-      <c r="Q43" s="76">
+      <c r="Q43" s="54">
         <v>26</v>
       </c>
-      <c r="R43" s="77">
+      <c r="R43" s="55">
         <v>46.153846153846096</v>
       </c>
-      <c r="S43" s="76">
+      <c r="S43" s="54">
         <v>856.501052631579</v>
       </c>
-      <c r="T43" s="76">
+      <c r="T43" s="54">
         <v>1093.39192307692</v>
       </c>
-      <c r="U43" s="78">
+      <c r="U43" s="56">
         <v>-27.657977735987899</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="62" t="s">
+    <row r="44" spans="1:21" ht="12" thickBot="1">
+      <c r="A44" s="80"/>
+      <c r="B44" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="76">
+      <c r="C44" s="68"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="54">
         <v>-1523.9315999999999</v>
       </c>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
-      <c r="U44" s="80"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="58"/>
     </row>
-    <row r="45" spans="1:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="62" t="s">
+    <row r="45" spans="1:21" ht="12" thickBot="1">
+      <c r="A45" s="81"/>
+      <c r="B45" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="81">
+      <c r="C45" s="68"/>
+      <c r="D45" s="59">
         <v>8768.9359000000004</v>
       </c>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="81">
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="59">
         <v>12341.3251</v>
       </c>
-      <c r="H45" s="83">
+      <c r="H45" s="61">
         <v>-28.946561013938499</v>
       </c>
-      <c r="I45" s="81">
+      <c r="I45" s="59">
         <v>749.26499999999999</v>
       </c>
-      <c r="J45" s="83">
+      <c r="J45" s="61">
         <v>8.5445373138147804</v>
       </c>
-      <c r="K45" s="81">
+      <c r="K45" s="59">
         <v>2137.2759000000001</v>
       </c>
-      <c r="L45" s="83">
+      <c r="L45" s="61">
         <v>17.318042290288599</v>
       </c>
-      <c r="M45" s="83">
+      <c r="M45" s="61">
         <v>-0.64942991216061496</v>
       </c>
-      <c r="N45" s="81">
+      <c r="N45" s="59">
         <v>112146.314</v>
       </c>
-      <c r="O45" s="81">
+      <c r="O45" s="59">
         <v>3612743.2703</v>
       </c>
-      <c r="P45" s="81">
+      <c r="P45" s="59">
         <v>15</v>
       </c>
-      <c r="Q45" s="81">
+      <c r="Q45" s="59">
         <v>13</v>
       </c>
-      <c r="R45" s="83">
+      <c r="R45" s="61">
         <v>15.384615384615399</v>
       </c>
-      <c r="S45" s="81">
+      <c r="S45" s="59">
         <v>584.59572666666702</v>
       </c>
-      <c r="T45" s="81">
+      <c r="T45" s="59">
         <v>505.96581538461498</v>
       </c>
-      <c r="U45" s="84">
+      <c r="U45" s="62">
         <v>13.4503055180363</v>
       </c>
     </row>
@@ -56578,25 +56555,24 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -56606,13 +56582,14 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -56620,15 +56597,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="29" customWidth="1"/>
@@ -56638,7 +56615,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="38" t="s">
         <v>72</v>
       </c>
@@ -56664,7 +56641,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -56690,7 +56667,7 @@
         <v>0.107615683702593</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -56716,7 +56693,7 @@
         <v>0.122036447673363</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -56742,7 +56719,7 @@
         <v>9.7692196379990701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -56768,7 +56745,7 @@
         <v>-7.9134382788182994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -56794,7 +56771,7 @@
         <v>0.20964044038403301</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -56820,7 +56797,7 @@
         <v>0.325345705408076</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -56846,7 +56823,7 @@
         <v>0.172041512092418</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -56872,7 +56849,7 @@
         <v>4.2390835817827398E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -56898,7 +56875,7 @@
         <v>-8.1982446767409706E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -56924,7 +56901,7 @@
         <v>2.3880874834292701E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -56950,7 +56927,7 @@
         <v>0.144065780799912</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -56976,7 +56953,7 @@
         <v>7.1723456360765797E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -57002,7 +56979,7 @@
         <v>0.10523299126256901</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -57028,7 +57005,7 @@
         <v>0.126941723686462</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -57054,7 +57031,7 @@
         <v>6.6412755901632203E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -57080,7 +57057,7 @@
         <v>3.8107067466918797E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -57106,7 +57083,7 @@
         <v>0.13473438726060799</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -57132,7 +57109,7 @@
         <v>8.0210813813857501E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -57158,7 +57135,7 @@
         <v>0.21816867882337199</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -57184,7 +57161,7 @@
         <v>0.273892108143936</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -57210,7 +57187,7 @@
         <v>5.2339565946537998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -57236,7 +57213,7 @@
         <v>0.13691313991557</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -57262,7 +57239,7 @@
         <v>9.9566690360244403E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -57288,7 +57265,7 @@
         <v>2.70739510229153E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -57314,7 +57291,7 @@
         <v>0.28425698592524001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -57340,7 +57317,7 @@
         <v>0.117667406927934</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -57366,7 +57343,7 @@
         <v>5.8701025558849498E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -57392,7 +57369,7 @@
         <v>3.3965929964726499E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -57418,7 +57395,7 @@
         <v>8.5445357319373694E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -57444,7 +57421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -57470,7 +57447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="30"/>
       <c r="B33" s="33">
         <v>70</v>
@@ -57488,7 +57465,7 @@
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="30"/>
       <c r="B34" s="33">
         <v>71</v>
@@ -57506,7 +57483,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="30"/>
       <c r="B35" s="33">
         <v>72</v>
@@ -57524,7 +57501,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="30"/>
       <c r="B36" s="33">
         <v>73</v>
@@ -57542,7 +57519,7 @@
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="30"/>
       <c r="B37" s="33">
         <v>77</v>
@@ -57560,7 +57537,7 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="30"/>
       <c r="B38" s="33">
         <v>78</v>
@@ -57578,7 +57555,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="30"/>
       <c r="B39" s="33">
         <v>74</v>
@@ -57596,7 +57573,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="30"/>
@@ -57606,7 +57583,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="30"/>
       <c r="B41" s="31"/>
       <c r="C41" s="30"/>
@@ -57616,7 +57593,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
@@ -57626,7 +57603,7 @@
       <c r="G42" s="31"/>
       <c r="H42" s="31"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="30"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
@@ -57636,7 +57613,7 @@
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="30"/>
@@ -57646,7 +57623,7 @@
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="30"/>
       <c r="B45" s="31"/>
       <c r="C45" s="30"/>
@@ -57656,7 +57633,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="30"/>
       <c r="B46" s="31"/>
       <c r="C46" s="30"/>
@@ -57666,7 +57643,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
       <c r="C47" s="30"/>
@@ -57676,7 +57653,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="30"/>
       <c r="B48" s="31"/>
       <c r="C48" s="30"/>
@@ -57686,7 +57663,7 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="30"/>
       <c r="B49" s="31"/>
       <c r="C49" s="30"/>
@@ -57696,7 +57673,7 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="30"/>
       <c r="B50" s="31"/>
       <c r="C50" s="30"/>
@@ -57706,7 +57683,7 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="30"/>
       <c r="B51" s="31"/>
       <c r="C51" s="30"/>
@@ -57716,7 +57693,7 @@
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="30"/>
       <c r="B52" s="31"/>
       <c r="C52" s="30"/>
@@ -57726,7 +57703,7 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="30"/>
       <c r="B53" s="31"/>
       <c r="C53" s="30"/>
@@ -57736,7 +57713,7 @@
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="30"/>
       <c r="B54" s="31"/>
       <c r="C54" s="30"/>
@@ -57746,7 +57723,7 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="30"/>
       <c r="B55" s="31"/>
       <c r="C55" s="30"/>
@@ -57756,7 +57733,7 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
       <c r="C56" s="30"/>
@@ -57766,7 +57743,7 @@
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
       <c r="C57" s="30"/>
@@ -57776,7 +57753,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="30"/>
       <c r="B58" s="31"/>
       <c r="C58" s="30"/>
@@ -57786,7 +57763,7 @@
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="30"/>
       <c r="B59" s="31"/>
       <c r="C59" s="30"/>
@@ -57796,7 +57773,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="30"/>
       <c r="B60" s="31"/>
       <c r="C60" s="30"/>
@@ -57806,7 +57783,7 @@
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="30"/>
       <c r="B61" s="31"/>
       <c r="C61" s="30"/>
@@ -57816,7 +57793,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="30"/>
       <c r="B62" s="31"/>
       <c r="C62" s="30"/>
@@ -57827,7 +57804,7 @@
       <c r="H62" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
